--- a/biology/Botanique/Mammillaria_barbata/Mammillaria_barbata.xlsx
+++ b/biology/Botanique/Mammillaria_barbata/Mammillaria_barbata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mammillaria barbata est une espèce de plantes à fleurs du genre Mammillaria et de la famille des Cactaceae. C'est un cactus originaire des états de Chihuahua et Durango au Mexique et des États d'Arizona et du Nouveau-Mexique aux États-Unis.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est constituée d'un tronc central, couvert d'épines à la pointe recourbée, placées autour de nœuds doublées de poils. Ces poils servent principalement à réguler la consommation et la retenue de l'eau dans la plante, une meilleure régulation de la température et une barrière pour certains insectes[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est constituée d'un tronc central, couvert d'épines à la pointe recourbée, placées autour de nœuds doublées de poils. Ces poils servent principalement à réguler la consommation et la retenue de l'eau dans la plante, une meilleure régulation de la température et une barrière pour certains insectes.
 La floraison (en Europe et plus généralement au niveau du tropique du Cancer) se fait de mars à juillet. Les fleurs se présentent la plupart du temps en couronne, sur la partie supérieure de la plante, exposée à la lumière du soleil et aux insectes et oiseaux pollinisateurs. Elles sont de couleur jaune clair à rosées.
 Les tiges poussent jusqu'à 6cm de hauteur, 4cm de diamètre, avec 1 à 4 épines centrales (16-60 radiales).
 </t>
@@ -544,13 +558,15 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme provient de deux mots latins : 
-Mammillaria : en forme de mamelle, proéminence[4].
+Mammillaria : en forme de mamelle, proéminence.
 et 
-barba : barbe (barbue)[5].
-L'espèce porte également le nom scientifique de santaclarensis, en référence à son lieu de découverte et son habitat endémique, le canyon de Santa Clara au Chihuahua[6].
+barba : barbe (barbue).
+L'espèce porte également le nom scientifique de santaclarensis, en référence à son lieu de découverte et son habitat endémique, le canyon de Santa Clara au Chihuahua.
 </t>
         </is>
       </c>
@@ -579,10 +595,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M. barbata est originaire des États d'Arizona et du Nouveau-Mexique aux États-Unis et des États de Chihuahua et Durango au Mexique[7].
-M. barbata croît du niveau des mers jusqu'à environ 2500m d'altitude[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M. barbata est originaire des États d'Arizona et du Nouveau-Mexique aux États-Unis et des États de Chihuahua et Durango au Mexique.
+M. barbata croît du niveau des mers jusqu'à environ 2500m d'altitude.
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Synonymes et/ou sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Phellosperma barbata (synon.)
 Mammillaria morricalii (synon.)
